--- a/data/case1/15/Plm1_3.xlsx
+++ b/data/case1/15/Plm1_3.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.40583309251279331</v>
+        <v>-0.34837547187382256</v>
       </c>
       <c r="B1" s="0">
-        <v>0.4048076133658185</v>
+        <v>0.34742996497635659</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.264247636839956</v>
+        <v>-0.27242477466130488</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26170018428555508</v>
+        <v>0.26920617902004551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.15875095688054941</v>
+        <v>-0.16625572935188515</v>
       </c>
       <c r="B3" s="0">
-        <v>0.15807595810692732</v>
+        <v>0.16526299472259609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14607595832931963</v>
+        <v>-0.15326299496470952</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1454850261924534</v>
+        <v>0.1523697339301826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13948502709185195</v>
+        <v>-0.14636973488085481</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13831626407884112</v>
+        <v>0.14457400213812743</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.077570330620821526</v>
+        <v>-0.027736976715153183</v>
       </c>
       <c r="B6" s="0">
-        <v>0.07748949343007272</v>
+        <v>0.027726301844821943</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.057489494490960524</v>
+        <v>-0.0077263029902017166</v>
       </c>
       <c r="B7" s="0">
-        <v>0.057284992982889804</v>
+        <v>0.0077253221862001453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.037284994050795994</v>
+        <v>0.012274676667834328</v>
       </c>
       <c r="B8" s="0">
-        <v>0.037065205069868767</v>
+        <v>-0.012291800861471636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.03106520600957019</v>
+        <v>0.01829179988336449</v>
       </c>
       <c r="B9" s="0">
-        <v>0.030858703814606869</v>
+        <v>-0.018325222740815938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.02485870476018448</v>
+        <v>0.024325221767050209</v>
       </c>
       <c r="B10" s="0">
-        <v>0.024828474508353793</v>
+        <v>-0.024325469848236025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.020328475439665539</v>
+        <v>-0.022212180006071947</v>
       </c>
       <c r="B11" s="0">
-        <v>0.020259533120697171</v>
+        <v>0.022196694234096981</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045395149452803985</v>
+        <v>-0.016196695208564371</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045150515691912751</v>
+        <v>0.016150714835222679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039150516651440981</v>
+        <v>-0.010150715814274847</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0390841474429795</v>
+        <v>0.010143316343850017</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027084148463881519</v>
+        <v>-0.052570384720074692</v>
       </c>
       <c r="B14" s="0">
-        <v>0.02705242206967462</v>
+        <v>0.052386003378523505</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021052423035015977</v>
+        <v>-0.046386004365240652</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027475070861001</v>
+        <v>0.046187039899884041</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027476038475207</v>
+        <v>-0.015027240807452991</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004165868170993</v>
+        <v>0.01500389052542328</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090041668388405327</v>
+        <v>-0.0090038915238270789</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999989999194341</v>
+        <v>0.0089999989653213319</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.1024361249405068</v>
+        <v>-0.036106070532795798</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10232854341993658</v>
+        <v>0.036096115311814003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.074363179544626679</v>
+        <v>-0.027096116244976542</v>
       </c>
       <c r="B19" s="0">
-        <v>0.073813726016535686</v>
+        <v>0.027012896569189593</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013504815465708</v>
+        <v>-0.018012897510670811</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004331347324154</v>
+        <v>0.018004208142052391</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043322594421937</v>
+        <v>-0.0090042090847557432</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999999087377919</v>
+        <v>0.0089999990564555432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093949228315688416</v>
+        <v>-0.093950450629849414</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093636063951610282</v>
+        <v>0.093637175674693651</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084636064868853111</v>
+        <v>-0.084637176645047774</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126996692661216</v>
+        <v>0.084127099234314606</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126997938546573</v>
+        <v>-0.042127100607114443</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998748460499</v>
+        <v>0.041999998619611567</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.054745934381205785</v>
+        <v>-0.094963624307755623</v>
       </c>
       <c r="B25" s="0">
-        <v>0.054647420911223321</v>
+        <v>0.094719794909021715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.048647421835344318</v>
+        <v>-0.088719795892107101</v>
       </c>
       <c r="B26" s="0">
-        <v>0.048524034998671084</v>
+        <v>0.088402714021366791</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.042524035924700776</v>
+        <v>-0.082402715010000627</v>
       </c>
       <c r="B27" s="0">
-        <v>0.042108264563816888</v>
+        <v>0.08130685329541576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.036108265498450365</v>
+        <v>-0.075306854305498661</v>
       </c>
       <c r="B28" s="0">
-        <v>0.035832103585868857</v>
+        <v>0.074547835032388932</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.023832104583517477</v>
+        <v>-0.062547836127668788</v>
       </c>
       <c r="B29" s="0">
-        <v>0.023712589951918162</v>
+        <v>0.062172878258337505</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042167400552048928</v>
+        <v>-0.042172879455150802</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018791790649601</v>
+        <v>0.042018753206073622</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018792826394744</v>
+        <v>-0.02701875435392509</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000568957847193</v>
+        <v>0.027000401454360556</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005700525147532</v>
+        <v>-0.0060004026742142003</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999990500774203</v>
+        <v>0.0059999989566916767</v>
       </c>
     </row>
   </sheetData>
